--- a/classification/droptc/sentence/modern-bert/freeze/67351593/prediction.xlsx
+++ b/classification/droptc/sentence/modern-bert/freeze/67351593/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.289393275976181</v>
+        <v>0.3701198697090149</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6356614232063293</v>
+        <v>0.9996076226234436</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5939675569534302</v>
+        <v>0.8524919152259827</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6123754382133484</v>
+        <v>0.72458815574646</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8612675070762634</v>
+        <v>0.9783101081848145</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7191985249519348</v>
+        <v>0.7407230138778687</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5226749777793884</v>
+        <v>0.6280245184898376</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9202218651771545</v>
+        <v>0.8585340976715088</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2264539748430252</v>
+        <v>0.6280245184898376</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5378352403640747</v>
+        <v>0.7438633441925049</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5175948739051819</v>
+        <v>0.7676131129264832</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7533156871795654</v>
+        <v>0.8483108282089233</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6516602039337158</v>
+        <v>0.8455954790115356</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3561645448207855</v>
+        <v>0.9373911023139954</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4587661623954773</v>
+        <v>0.8466051816940308</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6533136367797852</v>
+        <v>0.7645824551582336</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3677135407924652</v>
+        <v>0.7307563424110413</v>
       </c>
     </row>
     <row r="19">
@@ -954,7 +954,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7298694849014282</v>
+        <v>0.9875789284706116</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.858921229839325</v>
+        <v>0.8611322045326233</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7161521315574646</v>
+        <v>0.9964200258255005</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6152343153953552</v>
+        <v>0.8034152388572693</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7357785701751709</v>
+        <v>0.9913867115974426</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3088589608669281</v>
+        <v>0.9243592023849487</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9430128931999207</v>
+        <v>0.4399688541889191</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4037435948848724</v>
+        <v>0.3940955102443695</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6205702424049377</v>
+        <v>0.9694232940673828</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8134621381759644</v>
+        <v>0.9996076226234436</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5897899270057678</v>
+        <v>0.6904354095458984</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6942150592803955</v>
+        <v>0.91663658618927</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9339497685432434</v>
+        <v>0.8130801320075989</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6446527242660522</v>
+        <v>0.8853333592414856</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9227767586708069</v>
+        <v>0.6616218686103821</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2744387090206146</v>
+        <v>0.9398908019065857</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5551390051841736</v>
+        <v>0.9692485928535461</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6689788699150085</v>
+        <v>0.9556717872619629</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4948186874389648</v>
+        <v>0.9753706455230713</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8567567467689514</v>
+        <v>0.9493494033813477</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7311382293701172</v>
+        <v>0.9717605113983154</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3798710703849792</v>
+        <v>0.2826555371284485</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.343214750289917</v>
+        <v>0.9943095445632935</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2754217088222504</v>
+        <v>0.4878073930740356</v>
       </c>
     </row>
     <row r="43">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7824174165725708</v>
+        <v>0.6117789149284363</v>
       </c>
     </row>
     <row r="44">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2880105376243591</v>
+        <v>0.9040508270263672</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6857208013534546</v>
+        <v>0.8728695511817932</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8021262288093567</v>
+        <v>0.8947528600692749</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2582352459430695</v>
+        <v>0.6351927518844604</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5287927389144897</v>
+        <v>0.8356314301490784</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7130758166313171</v>
+        <v>0.9990928173065186</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9202218651771545</v>
+        <v>0.8912043571472168</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4434644877910614</v>
+        <v>0.725181519985199</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2666628062725067</v>
+        <v>0.9219024777412415</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.6242365837097168</v>
+        <v>0.8912043571472168</v>
       </c>
     </row>
     <row r="54">
@@ -1939,14 +1939,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2666628062725067</v>
+        <v>0.6326699256896973</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7405005097389221</v>
+        <v>0.9965658783912659</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5009760856628418</v>
+        <v>0.9979242086410522</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3859708309173584</v>
+        <v>0.9987468719482422</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7195945978164673</v>
+        <v>0.8573111891746521</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7052212953567505</v>
+        <v>0.9862605929374695</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6513106822967529</v>
+        <v>0.8613703846931458</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4100010991096497</v>
+        <v>0.9620236754417419</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6937580108642578</v>
+        <v>0.8245749473571777</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4516956508159637</v>
+        <v>0.8653282523155212</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5317544937133789</v>
+        <v>0.6855366826057434</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8142706155776978</v>
+        <v>0.9224878549575806</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5044796466827393</v>
+        <v>0.9224878549575806</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7101452946662903</v>
+        <v>0.7821508646011353</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6326602697372437</v>
+        <v>0.9224878549575806</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5470901131629944</v>
+        <v>0.6879765391349792</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7881413102149963</v>
+        <v>0.9138763546943665</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4899397194385529</v>
+        <v>0.5983517169952393</v>
       </c>
     </row>
     <row r="72">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6449342966079712</v>
+        <v>0.9884173274040222</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8984959721565247</v>
+        <v>0.8893052935600281</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8373018503189087</v>
+        <v>0.7071800827980042</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2634838819503784</v>
+        <v>0.5279422402381897</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6410326361656189</v>
+        <v>0.8893052935600281</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6852793097496033</v>
+        <v>0.5608896017074585</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6311209201812744</v>
+        <v>0.8893052935600281</v>
       </c>
     </row>
     <row r="79">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2643,10 +2643,10 @@
         </is>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3616409003734589</v>
+        <v>0.9943601489067078</v>
       </c>
     </row>
     <row r="80">
@@ -2667,14 +2667,14 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3224218785762787</v>
+        <v>0.3975195586681366</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9202218651771545</v>
+        <v>0.4071486294269562</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5949836373329163</v>
+        <v>0.5745470523834229</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9202218651771545</v>
+        <v>0.8418217301368713</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7152840495109558</v>
+        <v>0.8418217301368713</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7342379093170166</v>
+        <v>0.9842833280563354</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.741935133934021</v>
+        <v>0.8992372751235962</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.652656078338623</v>
+        <v>0.9254072904586792</v>
       </c>
     </row>
     <row r="88">
@@ -2891,14 +2891,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.3371201753616333</v>
+        <v>0.841941237449646</v>
       </c>
     </row>
     <row r="89">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2923,10 +2923,10 @@
         </is>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7330067753791809</v>
+        <v>0.6811648607254028</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3220161497592926</v>
+        <v>0.9805452823638916</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.6497464776039124</v>
+        <v>0.980043888092041</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8077150583267212</v>
+        <v>0.9771465659141541</v>
       </c>
     </row>
     <row r="93">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2762047052383423</v>
+        <v>0.984164297580719</v>
       </c>
     </row>
     <row r="94">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5844170451164246</v>
+        <v>0.9841493964195251</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7027642726898193</v>
+        <v>0.9777584075927734</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3629370927810669</v>
+        <v>0.9798035621643066</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.502638041973114</v>
+        <v>0.3337060809135437</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4886414110660553</v>
+        <v>0.9841408729553223</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9202218651771545</v>
+        <v>0.8860169053077698</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8053613901138306</v>
+        <v>0.7813431024551392</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8097160458564758</v>
+        <v>0.9529362320899963</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4949702322483063</v>
+        <v>0.539145827293396</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5442350506782532</v>
+        <v>0.6104228496551514</v>
       </c>
     </row>
     <row r="104">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="E104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.5341576933860779</v>
+        <v>0.8333541750907898</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6273471713066101</v>
+        <v>0.9502671957015991</v>
       </c>
     </row>
     <row r="106">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4563443660736084</v>
+        <v>0.9521611332893372</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5669413208961487</v>
+        <v>0.4762337505817413</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6270745396614075</v>
+        <v>0.5895780920982361</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7425548434257507</v>
+        <v>0.953057587146759</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5897899270057678</v>
+        <v>0.9996076226234436</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.7040941715240479</v>
+        <v>0.7291900515556335</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5772801637649536</v>
+        <v>0.6139870285987854</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7535602450370789</v>
+        <v>0.8796097040176392</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.858921229839325</v>
+        <v>0.9764885902404785</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.701772928237915</v>
+        <v>0.7593009471893311</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8685999512672424</v>
+        <v>0.3888885080814362</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7217888832092285</v>
+        <v>0.8219909071922302</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5608469247817993</v>
+        <v>0.4675968885421753</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9202218651771545</v>
+        <v>0.6915325522422791</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8780354261398315</v>
+        <v>0.9996076226234436</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7360742092132568</v>
+        <v>0.8135325908660889</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3381403684616089</v>
+        <v>0.9561364054679871</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.4269036948680878</v>
+        <v>0.8135325908660889</v>
       </c>
     </row>
     <row r="124">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="E124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5027735233306885</v>
+        <v>0.9561364054679871</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.343693345785141</v>
+        <v>0.8135325908660889</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8477716445922852</v>
+        <v>0.9967284202575684</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6626238226890564</v>
+        <v>0.2778753638267517</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.68256014585495</v>
+        <v>0.9996076226234436</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2359471172094345</v>
+        <v>0.6397815346717834</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5009760856628418</v>
+        <v>0.4548028409481049</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3045961558818817</v>
+        <v>0.98853999376297</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.625318706035614</v>
+        <v>0.6537081003189087</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.8138412237167358</v>
+        <v>0.9439224600791931</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.3303882479667664</v>
+        <v>0.5002895593643188</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8641424775123596</v>
+        <v>0.9892277717590332</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3408042192459106</v>
+        <v>0.8464251160621643</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7541216015815735</v>
+        <v>0.9852772355079651</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5340869426727295</v>
+        <v>0.8202230334281921</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.6071575880050659</v>
+        <v>0.986858606338501</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4035061001777649</v>
+        <v>0.9926464557647705</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6340197920799255</v>
+        <v>0.7022996544837952</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.719724714756012</v>
+        <v>0.9996076226234436</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6242365837097168</v>
+        <v>0.3873469233512878</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.7989139556884766</v>
+        <v>0.9711300730705261</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.7409353256225586</v>
+        <v>0.3873469233512878</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.6174170970916748</v>
+        <v>0.9579800367355347</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7016947865486145</v>
+        <v>0.6879765391349792</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8537182211875916</v>
+        <v>0.8855562806129456</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8422946929931641</v>
+        <v>0.8569867610931396</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9202218651771545</v>
+        <v>0.3947696089744568</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.7844315767288208</v>
+        <v>0.9996076226234436</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.2880105376243591</v>
+        <v>0.408827155828476</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7589183449745178</v>
+        <v>0.9852141737937927</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8043959140777588</v>
+        <v>0.7552225589752197</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6846334934234619</v>
+        <v>0.9945306181907654</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8272802233695984</v>
+        <v>0.5266287326812744</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.3859708309173584</v>
+        <v>0.9932125806808472</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.4191872775554657</v>
+        <v>0.7308611273765564</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.3045961558818817</v>
+        <v>0.9975134134292603</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.7503736019134521</v>
+        <v>0.728356659412384</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6429374217987061</v>
+        <v>0.9879792928695679</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9202218651771545</v>
+        <v>0.9722765684127808</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.5964567065238953</v>
+        <v>0.8378992080688477</v>
       </c>
     </row>
     <row r="164">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.7830379605293274</v>
+        <v>0.5549052953720093</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6198732256889343</v>
+        <v>0.9906467199325562</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.6729525327682495</v>
+        <v>0.8859947323799133</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.5111668109893799</v>
+        <v>0.6500862836837769</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.7286545038223267</v>
+        <v>0.5953537225723267</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.3408042192459106</v>
+        <v>0.9996076226234436</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.6042642593383789</v>
+        <v>0.6500862836837769</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.5553802251815796</v>
+        <v>0.7849740386009216</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.4094215929508209</v>
+        <v>0.9996076226234436</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.343214750289917</v>
+        <v>0.894529402256012</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.4236700534820557</v>
+        <v>0.9196115136146545</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5178955793380737</v>
+        <v>0.894529402256012</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.6014218926429749</v>
+        <v>0.8025071620941162</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.6251906156539917</v>
+        <v>0.9196115136146545</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.7521830201148987</v>
+        <v>0.8696148991584778</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.7733047604560852</v>
+        <v>0.9824304580688477</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.5669413208961487</v>
+        <v>0.9540150165557861</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6395724415779114</v>
+        <v>0.5947926640510559</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9360551238059998</v>
+        <v>0.9601360559463501</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3185098469257355</v>
+        <v>0.3990393579006195</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.7431473135948181</v>
+        <v>0.998974084854126</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.5068956613540649</v>
+        <v>0.963991105556488</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5370551943778992</v>
+        <v>0.9627732634544373</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6626589894294739</v>
+        <v>0.9720179438591003</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8175786733627319</v>
+        <v>0.964181661605835</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.780791699886322</v>
+        <v>0.9630088210105896</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.6060424447059631</v>
+        <v>0.9695168733596802</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5178955793380737</v>
+        <v>0.4281744956970215</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.3859708309173584</v>
+        <v>0.9522480368614197</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9202218651771545</v>
+        <v>0.9567704200744629</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.5684791803359985</v>
+        <v>0.8715306520462036</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.4737981259822845</v>
+        <v>0.6794437170028687</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.8725624084472656</v>
+        <v>0.9988490343093872</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.8385392427444458</v>
+        <v>0.7976076006889343</v>
       </c>
     </row>
     <row r="198">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.5086320638656616</v>
+        <v>0.4870315492153168</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3849625587463379</v>
+        <v>0.9004116058349609</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.6439778208732605</v>
+        <v>0.8646940588951111</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.6849533915519714</v>
+        <v>0.9979063272476196</v>
       </c>
     </row>
     <row r="202">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.4922839999198914</v>
+        <v>0.980751633644104</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8541017174720764</v>
+        <v>0.819372296333313</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.387795090675354</v>
+        <v>0.3444004356861115</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8371777534484863</v>
+        <v>0.664004921913147</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.3408042192459106</v>
+        <v>0.9948248863220215</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.2666628062725067</v>
+        <v>0.4575937688350677</v>
       </c>
     </row>
     <row r="208">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.46529221534729</v>
+        <v>0.971489429473877</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.6459778547286987</v>
+        <v>0.4580701887607574</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.4527051448822021</v>
+        <v>0.9992699027061462</v>
       </c>
     </row>
   </sheetData>
